--- a/example/withdrawals.xlsx
+++ b/example/withdrawals.xlsx
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -441,7 +441,7 @@
         <v>44827</v>
       </c>
       <c r="C3">
-        <v>2324.07</v>
+        <v>2322.07</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -455,7 +455,7 @@
         <v>44827</v>
       </c>
       <c r="C4">
-        <v>934.41</v>
+        <v>936.41</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -525,7 +525,7 @@
         <v>44879</v>
       </c>
       <c r="C9">
-        <v>47.62</v>
+        <v>43.62</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>

--- a/example/withdrawals.xlsx
+++ b/example/withdrawals.xlsx
@@ -427,7 +427,7 @@
         <v>44826</v>
       </c>
       <c r="C2">
-        <v>1675.93</v>
+        <v>1673.93</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -441,7 +441,7 @@
         <v>44827</v>
       </c>
       <c r="C3">
-        <v>2322.07</v>
+        <v>2324.07</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -455,7 +455,7 @@
         <v>44827</v>
       </c>
       <c r="C4">
-        <v>936.41</v>
+        <v>932.41</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -525,7 +525,7 @@
         <v>44879</v>
       </c>
       <c r="C9">
-        <v>43.62</v>
+        <v>47.62</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>

--- a/example/withdrawals.xlsx
+++ b/example/withdrawals.xlsx
@@ -28,10 +28,10 @@
     <t>currency</t>
   </si>
   <si>
-    <t>USD</t>
+    <t>EUR</t>
   </si>
   <si>
-    <t>EUR</t>
+    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -421,13 +421,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B2" s="2">
-        <v>44826</v>
+        <v>-693594</v>
       </c>
       <c r="C2">
-        <v>1673.93</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -438,27 +438,27 @@
         <v>45293</v>
       </c>
       <c r="B3" s="2">
-        <v>44827</v>
+        <v>44826</v>
       </c>
       <c r="C3">
-        <v>2324.07</v>
+        <v>1673.87</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B4" s="2">
         <v>44827</v>
       </c>
       <c r="C4">
-        <v>932.41</v>
+        <v>2324.13</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -466,13 +466,13 @@
         <v>45294</v>
       </c>
       <c r="B5" s="2">
-        <v>44842</v>
+        <v>44827</v>
       </c>
       <c r="C5">
-        <v>98</v>
+        <v>932.37</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -480,13 +480,13 @@
         <v>45294</v>
       </c>
       <c r="B6" s="2">
-        <v>44867</v>
+        <v>44842</v>
       </c>
       <c r="C6">
-        <v>329.99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -494,13 +494,13 @@
         <v>45294</v>
       </c>
       <c r="B7" s="2">
-        <v>44868</v>
+        <v>44867</v>
       </c>
       <c r="C7">
-        <v>349.99</v>
+        <v>330</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -511,10 +511,10 @@
         <v>44868</v>
       </c>
       <c r="C8">
-        <v>239.99</v>
+        <v>350</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -522,13 +522,13 @@
         <v>45294</v>
       </c>
       <c r="B9" s="2">
-        <v>44879</v>
+        <v>44868</v>
       </c>
       <c r="C9">
-        <v>47.62</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -536,10 +536,10 @@
         <v>45294</v>
       </c>
       <c r="B10" s="2">
-        <v>-693594</v>
+        <v>44879</v>
       </c>
       <c r="C10">
-        <v>2000</v>
+        <v>47.63</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>

--- a/example/withdrawals.xlsx
+++ b/example/withdrawals.xlsx
@@ -28,10 +28,10 @@
     <t>currency</t>
   </si>
   <si>
-    <t>EUR</t>
+    <t>USD</t>
   </si>
   <si>
-    <t>USD</t>
+    <t>EUR</t>
   </si>
 </sst>
 </file>
@@ -421,13 +421,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B2" s="2">
-        <v>-693594</v>
+        <v>44826</v>
       </c>
       <c r="C2">
-        <v>2000</v>
+        <v>1673.87</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -438,27 +438,27 @@
         <v>45293</v>
       </c>
       <c r="B3" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="C3">
-        <v>1673.87</v>
+        <v>2324.13</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B4" s="2">
         <v>44827</v>
       </c>
       <c r="C4">
-        <v>2324.13</v>
+        <v>932.37</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -466,13 +466,13 @@
         <v>45294</v>
       </c>
       <c r="B5" s="2">
-        <v>44827</v>
+        <v>44842</v>
       </c>
       <c r="C5">
-        <v>932.37</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -480,13 +480,13 @@
         <v>45294</v>
       </c>
       <c r="B6" s="2">
-        <v>44842</v>
+        <v>44867</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <v>330</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -494,13 +494,13 @@
         <v>45294</v>
       </c>
       <c r="B7" s="2">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="C7">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -511,10 +511,10 @@
         <v>44868</v>
       </c>
       <c r="C8">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -522,13 +522,13 @@
         <v>45294</v>
       </c>
       <c r="B9" s="2">
-        <v>44868</v>
+        <v>44879</v>
       </c>
       <c r="C9">
-        <v>240</v>
+        <v>47.63</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -536,10 +536,10 @@
         <v>45294</v>
       </c>
       <c r="B10" s="2">
-        <v>44879</v>
+        <v>-693594</v>
       </c>
       <c r="C10">
-        <v>47.63</v>
+        <v>2000</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
